--- a/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/7/Editor de Código Preferido.xlsx
+++ b/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/7/Editor de Código Preferido.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian Vargas\Documents\GitHub\LaptopToPC\Ulatina\X - Cuatrimestre\Probabilidad y Estadistica\Semanas\7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702100BF-7392-438D-A9FB-4C2EC3FE9099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435B8C59-4B5C-4FD8-9B71-DD3D7ABA414E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="4560" windowWidth="20640" windowHeight="11160" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,15 @@
     <sheet name="Hoja19" sheetId="20" r:id="rId7"/>
     <sheet name="Hoja20" sheetId="21" r:id="rId8"/>
     <sheet name="Hoja16" sheetId="17" r:id="rId9"/>
-    <sheet name="Hoja1" sheetId="22" r:id="rId10"/>
-    <sheet name="Hoja2" sheetId="23" r:id="rId11"/>
-    <sheet name="Hoja3" sheetId="24" r:id="rId12"/>
+    <sheet name="Hoja4" sheetId="25" r:id="rId10"/>
+    <sheet name="Hoja1" sheetId="22" r:id="rId11"/>
+    <sheet name="Hoja6" sheetId="27" r:id="rId12"/>
+    <sheet name="Hoja2" sheetId="23" r:id="rId13"/>
+    <sheet name="Hoja5" sheetId="26" r:id="rId14"/>
+    <sheet name="Hoja3" sheetId="24" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="142">
   <si>
     <t>Id</t>
   </si>
@@ -357,6 +360,185 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>x =</t>
+  </si>
+  <si>
+    <t>µ =</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.2"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ; s =</t>
+    </r>
+  </si>
+  <si>
+    <t>n =</t>
+  </si>
+  <si>
+    <t>gl (n-1) =</t>
+  </si>
+  <si>
+    <t>Paso 1.</t>
+  </si>
+  <si>
+    <t>Ho:</t>
+  </si>
+  <si>
+    <t>H1:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paso 2. </t>
+  </si>
+  <si>
+    <t>Confianza =</t>
+  </si>
+  <si>
+    <r>
+      <t>Significancia (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) =</t>
+    </r>
+  </si>
+  <si>
+    <t>Paso 3.</t>
+  </si>
+  <si>
+    <t>z ó t (estadístico) =</t>
+  </si>
+  <si>
+    <t>Paso 4.</t>
+  </si>
+  <si>
+    <t>Unilateral</t>
+  </si>
+  <si>
+    <t>Bilateral</t>
+  </si>
+  <si>
+    <t>z (tabular) =</t>
+  </si>
+  <si>
+    <t>t (tabular) =</t>
+  </si>
+  <si>
+    <t>z o t (estadístico)</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>z o t (tabular)</t>
+  </si>
+  <si>
+    <t>Paso 5.</t>
+  </si>
+  <si>
+    <t>Conclusión :</t>
+  </si>
+  <si>
+    <t>µ = 6</t>
+  </si>
+  <si>
+    <r>
+      <t>µ &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>n=</t>
+  </si>
+  <si>
+    <t>Desv. Estandar. =</t>
+  </si>
+  <si>
+    <t>Media=</t>
+  </si>
+  <si>
+    <t>Confianza=</t>
+  </si>
+  <si>
+    <t>Significancia=</t>
+  </si>
+  <si>
+    <t>Se mantiene H0 y se rechaza H1</t>
+  </si>
+  <si>
+    <t>Fórmula=</t>
+  </si>
+  <si>
+    <t>Lim. Inf.</t>
+  </si>
+  <si>
+    <t>Lim. Sup.</t>
+  </si>
+  <si>
+    <t>µ = 7</t>
+  </si>
+  <si>
+    <r>
+      <t>µ &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 7</t>
+    </r>
+  </si>
+  <si>
+    <t>Se rechaza H0 y se mantiene H1</t>
+  </si>
+  <si>
+    <t>(en procentaje de estudiantes)</t>
+  </si>
+  <si>
+    <t>Universidad Latina de Costa Rica: Característica mas valorada en el editor de código , 2024</t>
+  </si>
 </sst>
 </file>
 
@@ -365,7 +547,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,8 +584,47 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +658,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -510,6 +749,43 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,6 +966,22 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
+              <a:t>Unversidad Latina de</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Costa Rica: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Editor</a:t>
             </a:r>
             <a:r>
@@ -698,7 +990,20 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> de codigo preferido</a:t>
+              <a:t> de codigo preferido, 2024 </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(en numero de estudiantes)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1">
               <a:solidFill>
@@ -1066,6 +1371,733 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Histograma: Lenguajes de programacion utilizados en el editor de codigo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frecuencia</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$F$17:$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>y mayor...</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$G$17:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E038-456E-9A65-15E23AADA8A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="764729240"/>
+        <c:axId val="764732120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="764729240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Lenguajes</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> de programacion</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="764732120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="764732120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="764729240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Histograma: Universidad Latina de Costa Rica, </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Lenguajes de programacion utilizados en el editor de codigo, 2024 </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(en lenguajes de programacion)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>¿Cuántos lenguajes de programación en general a utilizado en su editor de código preferido?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$16:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$16:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CF3-424C-B282-448C804EFB51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="664953720"/>
+        <c:axId val="664954080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="664953720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Lenguajes</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> de programacion</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664954080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="664954080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664953720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1274,7 +2306,471 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Histograma: Universidad Latina de Costa Rica, </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Proyectos desarrollados en el editor de codigo, 2024 </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(en proyectos desarrollados)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13153096793003682"/>
+          <c:y val="1.6625108259563235E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>¿Cuántos proyectos has desarrollado con tu editor de código preferido en los últimos años?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$B$15:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A3A-4991-AA96-FE3854493B80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="664963800"/>
+        <c:axId val="664960560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="664963800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>proyectos</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> desarrollados</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664960560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="664960560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664963800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1502,6 +2998,462 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Histograma: Universidad Latina de Costa Rica, </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Extensiones o plugins instaladas en el editor de codigo, 2024 </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(en plugins instalados)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> ¿Cuántas extensiones o plugins tienes instalados en tu editor de código preferido?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$B$14:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55C1-4DD1-97F2-DD2DBA6A7E74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="664950840"/>
+        <c:axId val="664947600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="664950840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Plugins</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> instalados</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664947600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="664947600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664950840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1541,6 +3493,22 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
+              <a:t>Universidad</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Latina de Costa Rica: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>El</a:t>
             </a:r>
             <a:r>
@@ -1549,7 +3517,20 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> Sistema Operativos principal para el editos de codigo</a:t>
+              <a:t> Sistema Operativos principal para el editor de codigo, 2024</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(en numero de estudiantes)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1">
               <a:solidFill>
@@ -1941,13 +3922,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1955,26 +3950,47 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1">
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>El</a:t>
+              <a:t>Universidad Latina de Costa Rica: El editor de codigo es multiplataforma, 2024</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0">
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> editor de codigo es multiplataforma</a:t>
+              <a:t>(en procentaje de estudiantes)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1990,13 +4006,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2285,13 +4315,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2299,26 +4343,47 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1">
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>El uso</a:t>
+              <a:t>Universidad Latina de Costa Rica: El uso de atajos del teclado en el editor de codigo, 2024</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0">
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> de atajos del teclado en el editor de codigo</a:t>
+              <a:t>(en procentaje de estudiantes)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2334,13 +4399,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2624,13 +4703,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2638,12 +4731,46 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1">
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Dispositivo donde prefieres utilizar el editor de código</a:t>
+              <a:t>Universidad Latina de Costa Rica: Dispositivo donde prefieren utilizar el editor de código, 2024</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(en numero de estudiantes)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2660,13 +4787,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3027,8 +5168,47 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Característica mas valorada en el editor de código </a:t>
+              <a:t> </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Universidad Latina de Costa Rica: Característica mas valorada en el editor de código, 2024</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(en numero de estudiantes)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3330,13 +5510,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3344,22 +5538,57 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1">
+              <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Universidad Latina de Costa Rica: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Opinion</a:t>
+              <a:t>Opinion acerca de la interfaz de usuario del editor de codigo</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0">
+              <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>, 2024</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> acerca de la interfaz de usuario del editor de codigo</a:t>
+              <a:t> </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" b="1">
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(en numero de estudiantes)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3379,13 +5608,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3892,7 +6135,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3910,9 +6153,12 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3920,17 +6166,140 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-MX" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Histograma: Lenguajes de programacion utilizados en el editor de codigo</a:t>
+              <a:t>Histograma: Universidad Latina de Costa Rica, </a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Horas diarias que se utiliza el editor de codigo, 2024 </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(en horas diarias)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3943,49 +6312,34 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Frecuencia</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$F$17:$F$24</c:f>
+              <c:f>Hoja16!$A$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>y mayor...</c:v>
+                  <c:v>¿Cuántas horas al día utilizas tu editor de código preferido?</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$G$17:$G$24</c:f>
+              <c:f>Hoja16!$B$14:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -3994,26 +6348,47 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja16!$C$14:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E038-456E-9A65-15E23AADA8A4}"/>
+              <c16:uniqueId val="{00000000-760A-4DA3-B768-B7765A0CD882}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4026,11 +6401,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="764729240"/>
-        <c:axId val="764732120"/>
+        <c:axId val="664922400"/>
+        <c:axId val="664925640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="764729240"/>
+        <c:axId val="664922400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4039,31 +6414,101 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX"/>
-                  <a:t>Lenguajes</a:t>
+                  <a:t>Horas</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="es-MX" baseline="0"/>
-                  <a:t> de programacion</a:t>
+                  <a:t> Diarias</a:t>
                 </a:r>
                 <a:endParaRPr lang="es-MX"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="764732120"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664925640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4071,39 +6516,131 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="764732120"/>
+        <c:axId val="664925640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-MX"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Frecuencia</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.6111111111111108E-2"/>
+              <c:y val="0.53766586468358124"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="764729240"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664922400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4116,6 +6653,31 @@
     </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -4129,6 +6691,86 @@
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -4401,6 +7043,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -4906,8 +7628,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5111,23 +7833,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5232,8 +7953,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5365,20 +8086,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5411,8 +8131,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5469,7 +8189,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5520,13 +8240,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5537,19 +8250,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5587,7 +8293,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5630,23 +8336,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5751,8 +8456,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5884,20 +8589,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5930,8 +8634,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5988,7 +8692,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6039,13 +8743,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6056,19 +8753,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6106,7 +8796,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6449,8 +9139,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6507,7 +9197,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6558,6 +9248,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6568,12 +9265,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6611,7 +9315,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6954,8 +9658,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7012,7 +9716,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7063,6 +9767,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7073,12 +9784,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -7116,7 +9834,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -7459,7 +10177,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7932,6 +10650,2022 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8043,6 +12777,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>61911</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F528863-A8C9-4BA3-8BBA-625281AC9FA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8051,15 +12821,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8084,6 +12854,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>328611</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B6B9223-92F9-D4E8-CAE7-48A75BE6F1D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8091,16 +12897,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8173,16 +12979,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>742949</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8214,16 +13020,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8296,16 +13102,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8337,16 +13143,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8371,6 +13177,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD698EF-22EB-5B3C-456A-9263B48B36C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8378,16 +13220,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1743074</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8407,6 +13249,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1519236</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E83E26-06CC-50E5-2FC4-179A62DDA22D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8436,14 +13314,14 @@
       <sheetName val="Hoja3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2">
@@ -8496,9 +13374,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10190,10 +15068,422 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E5E771-2593-44CA-A42D-92ABAB93CAEE}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="10" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="19">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>3</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>6</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="24">
+        <f>E5-1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>10</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="E13" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="H14" s="28">
+        <v>0.99</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="19">
+        <v>3.8</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="H15" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0.81377037438224686</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="19">
+        <v>3</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="19">
+        <v>3</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="29">
+        <f>(E2-E3)/(E4/SQRT(E5))</f>
+        <v>-2.7070081137628152</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="19">
+        <v>2.5733678754158378</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="19">
+        <v>6.6222222222222218</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="19">
+        <v>3.5477890313821119</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1.7428131328228122</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="19">
+        <v>9</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="30">
+        <f>_xlfn.T.INV(H14,E6)</f>
+        <v>2.8214379250258079</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="19">
+        <v>1</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="19">
+        <v>10</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="29">
+        <f>ABS(G18)</f>
+        <v>2.7070081137628152</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" s="29">
+        <f>ABS(G23)</f>
+        <v>2.8214379250258079</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="19">
+        <v>38</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="20">
+        <v>10</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E28" s="21"/>
+      <c r="F28" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB65388B-CD50-4399-BBED-D0B2066B479A}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10285,6 +15575,9 @@
       <c r="A16">
         <v>2</v>
       </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
       <c r="C16">
         <v>1.5</v>
       </c>
@@ -10300,6 +15593,9 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
@@ -10317,7 +15613,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
       </c>
       <c r="C18">
         <v>3.5</v>
@@ -10334,7 +15633,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
       </c>
       <c r="C19">
         <v>4.5</v>
@@ -10351,7 +15653,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
       </c>
       <c r="C20">
         <v>5.5</v>
@@ -10367,9 +15672,6 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4</v>
-      </c>
       <c r="C21">
         <v>6.5</v>
       </c>
@@ -10384,9 +15686,6 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>4</v>
-      </c>
       <c r="C22">
         <v>7.5</v>
       </c>
@@ -10401,9 +15700,6 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4</v>
-      </c>
       <c r="F23">
         <v>8.5</v>
       </c>
@@ -10412,19 +15708,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>5</v>
-      </c>
       <c r="F24" s="15" t="s">
         <v>80</v>
       </c>
       <c r="G24" s="15">
         <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -10558,11 +15846,420 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0FBF32-5F3A-47CE-BFC5-B84D6F5F60D4}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>2</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>4</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1.5776212754932311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0.95</v>
+      </c>
+      <c r="H13" s="28">
+        <v>0.95</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="H14" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0.49888765156985887</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="29">
+        <f>(D2-D3)/(D4/SQRT(D5))</f>
+        <v>-6.8151616687668213</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="19">
+        <v>2</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="19">
+        <v>1.5776212754932311</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="19">
+        <v>2.4888888888888894</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="19">
+        <v>1.2089445153061229</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1.0441805356969505</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="30">
+        <f>_xlfn.T.INV(H13,D6)</f>
+        <v>1.8331129326562368</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="19">
+        <v>5</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="19">
+        <v>2</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="29">
+        <f>ABS(G17)</f>
+        <v>6.8151616687668213</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="29">
+        <f>ABS(G22)</f>
+        <v>1.8331129326562368</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="19">
+        <v>7</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="19">
+        <v>36</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="20">
+        <v>10</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C20EFE1-AC93-4C59-9994-8DD96D3613DB}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10652,10 +16349,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
       </c>
       <c r="C20">
         <v>0.5</v>
@@ -10671,9 +16410,6 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2</v>
-      </c>
       <c r="C21">
         <v>1.5</v>
       </c>
@@ -10688,9 +16424,6 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>3</v>
-      </c>
       <c r="C22">
         <v>2.5</v>
       </c>
@@ -10705,9 +16438,6 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>3</v>
-      </c>
       <c r="C23">
         <v>3.5</v>
       </c>
@@ -10722,9 +16452,6 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>3</v>
-      </c>
       <c r="C24">
         <v>4.5</v>
       </c>
@@ -10739,9 +16466,6 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>4</v>
-      </c>
       <c r="C25">
         <v>5.5</v>
       </c>
@@ -10756,9 +16480,6 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>4</v>
-      </c>
       <c r="C26">
         <v>6.5</v>
       </c>
@@ -10773,9 +16494,6 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>5</v>
-      </c>
       <c r="F27">
         <v>7.5</v>
       </c>
@@ -10784,19 +16502,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>6</v>
-      </c>
       <c r="F28" s="15" t="s">
         <v>80</v>
       </c>
       <c r="G28" s="15">
         <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -10926,15 +16636,266 @@
     <sortCondition ref="F21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE81E232-F91D-4D08-B44E-B4F2EACC6126}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="19">
+        <v>1.6363916944844767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="19">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4">
+        <v>95</v>
+      </c>
+      <c r="G4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="32">
+        <f>_xlfn.CONFIDENCE.T(G5,F2,F1)</f>
+        <v>1.1706040995225087</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>6</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="34">
+        <f>F3-F8</f>
+        <v>2.5293959004774917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="36">
+        <f>F3+F8</f>
+        <v>4.8706040995225086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="18"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="19">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="19">
+        <v>0.51747248987533401</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="19">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="19">
+        <v>1.6363916944844767</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="19">
+        <v>2.6777777777777771</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="19">
+        <v>-0.65457845816310822</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="19">
+        <v>3.0428247276100953E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE50DAA-7510-4784-BCBB-8E58FE238FA1}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11025,11 +16986,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
       <c r="C20">
         <v>0.5</v>
       </c>
@@ -11044,9 +17049,6 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2</v>
-      </c>
       <c r="C21">
         <v>1.5</v>
       </c>
@@ -11061,9 +17063,6 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
       <c r="C22">
         <v>2.5</v>
       </c>
@@ -11078,9 +17077,6 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2</v>
-      </c>
       <c r="C23">
         <v>3.5</v>
       </c>
@@ -11095,9 +17091,6 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>3</v>
-      </c>
       <c r="C24">
         <v>4.5</v>
       </c>
@@ -11112,9 +17105,6 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>3</v>
-      </c>
       <c r="C25">
         <v>5.5</v>
       </c>
@@ -11129,9 +17119,6 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>4</v>
-      </c>
       <c r="C26">
         <v>6.5</v>
       </c>
@@ -11146,9 +17133,6 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>5</v>
-      </c>
       <c r="F27">
         <v>7.5</v>
       </c>
@@ -11157,19 +17141,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>5</v>
-      </c>
       <c r="F28" s="15" t="s">
         <v>80</v>
       </c>
       <c r="G28" s="15">
         <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -11311,7 +17287,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11383,7 +17359,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11455,7 +17431,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11583,7 +17559,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11651,10 +17627,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E30B6AD-D2E8-4AA8-B7D4-F3A4A8885091}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A22" sqref="A21:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11716,6 +17692,16 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
+    </row>
+    <row r="21" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11728,7 +17714,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11793,8 +17779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A261AAB2-4E0C-4A5B-B9D3-2F66C0F27CB4}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11931,6 +17917,12 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="H14" s="16" t="s">
         <v>79</v>
       </c>
@@ -11939,6 +17931,12 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
       <c r="H15">
         <v>1.5</v>
       </c>
@@ -11947,6 +17945,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
       <c r="H16">
         <v>2.5</v>
       </c>
@@ -11955,6 +17959,12 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="H17">
         <v>3.5</v>
       </c>
@@ -11963,6 +17973,12 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="H18">
         <v>4.5</v>
       </c>
@@ -11971,6 +17987,12 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
       <c r="H19">
         <v>5.5</v>
       </c>
